--- a/Datos/libros/convert/xlsx/Francis Bacon - La nueva Atlántida_esp.xlsx
+++ b/Datos/libros/convert/xlsx/Francis Bacon - La nueva Atlántida_esp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7ba5ab37b782061/Estudios/UNI/Curso NLP/Proyecto/Traductor-Quechua-Spanish-Spanish-Quechua/Datos/libros/convert/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC54CC69-E775-4BE4-9EE9-22EF3E5D35B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{FC54CC69-E775-4BE4-9EE9-22EF3E5D35B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB2AC7C-DF94-4D65-87B2-C70E5935540A}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{C959F817-AB11-43DD-9CB8-E6B4B1C8D301}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="412">
   <si>
     <t>Francis Bacon de Verulamio</t>
   </si>
@@ -360,33 +360,9 @@
     <t>Respondió: "Al hacerme esta pregunta en primer lugar, mi corazón se siente más ligado al vuestro, ya que muestra que buscáis ante todo el reino de los cielos; con gusto, y brevemente, contestaré a vuestra demanda.</t>
   </si>
   <si>
-    <t>Unos veinte años después de la ascensión de nuestro Salvador, los habitantes de Renfusa (ciudad de la costa oriental de nuestra isla) vieron a la distancia de unas millas ( la noche era nubosa y tranquila) un gran pilar de luz en el mar; tenía la forma de una columna o cilindro y ascendía del mar hacia el cielo; en lo alto se veía una gran cruz luminosa, más brillante y resplandeciente que el fuste del pilar._x000D_
-Ante tan extraño espectáculo las gentes de la ciudad se concentraron rápidamente en la playa para admirarlo; luego se embarcaron en cierto número de pequeños botes con objeto de aproximarse más a aquella maravillosa vista._x000D_
-Pero cuando estaban a unas sesenta yardas del pilar se encontraron con que no podían avanzar, aunque podían moverse en otras direcciones; las personas permanecieron en los botes en una actitud contemplativa, corno en un teatro, mirando aquella luz, que era como un signo celestial._x000D_
-Sucedió que en uno de los botes se hallaba uno de nuestros hombres más sabios, de la Sociedad La Casa de Salomón", casa o colegio, mis queridos hermanos, que constituye el alma de este reino; habiendo mirado y contemplado atenta y devotamente durante un rato el pilar y la cruz, este sabio cayó sobre su rostro, y luego, irguiéndose y elevando sus manos al cielo, oró de esta manera:,</t>
-  </si>
-  <si>
-    <t>Señor, Dios del cielo y de la tierra, por tu gracia nos has permitido conocer la creación, tu obra, y sus secretos; y discernir (en cuanto le es posible al hombre) entre los milagros divinos, las obras de la naturaleza, las artísticas, y las impostoras e ilusiones de todas clases._x000D_
-Doy fe ante este pueblo que en lo que estamos contemplando en estos momentos se halla tu dedo, y es un verdadero milagro._x000D_
-Y como, según hemos aprendido en nuestros libros, realizas milagros con vistas a un fin excelente y divino (pues las leyes de la naturaleza son tus propias leyes, y tú no las varías a no ser por un gran motivo), te suplicamos humildemente que nos sea posible interpretar este gran signo; lo cual parece que lo prometes, al enviárnoslo.</t>
-  </si>
-  <si>
-    <t>Cuando acabó su oración notó que el bote podía moverse sin impedimento, mientras que los demás permanecían quietos; y considerando que ello significaba permiso para aproximarse, hizo que, remando silenciosamente, el bote se acercara al pilar._x000D_
-Pero cuando llegó cerca de él, el pilar y la cruz luminosa  - se esfumaron, rompiéndose, por así decirlo, en un firmamento de estrellas, que también se desvaneció poco después; y nada más se vio a no ser un pequeño cofre o caja de cedro, seco, y no húmedo aunque flotaba en el agua._x000D_
-En su parte anterior, la que estaba más cerca de él, crecía una pequeña rama verde de palma; cuando el sabio tomó el cofre en sus manos, con toda reverencia lo abrió y se encontraron dentro un libro y una carta, escritos ambos en fino pergamino y enrollados en trozos de tela._x000D_
-El libro contenía todos los libros canónicos del Viejo y del Nuevo Testamento, tal como los tienen ustedes (pues sabemos que su Iglesia los recibió), y el Apocalipsis; también había otros libros del Nuevo Testamento, aunque en aquel tiempo aún no habían sido escritos._x000D_
-La carta contenía estas palabras:_x000D_
-Yo, Bartolomé, siervo del Altísimo y apóstol de jesucristo, fui avisado por un ángel que se me apareció en una gloriosa visión para que depositara este cofre sobre las olas del mar.</t>
-  </si>
-  <si>
     <t>Por consiguiente, declaro y doy fe de que el pueblo al que llegue este cofre, por voluntad de Dos, el día mismo de su llegada obtendrá la salvación, la paz y la bienaventuranza tanto del Padre como de Nuestro Señor jesucristo."</t>
   </si>
   <si>
-    <t>Con estos escritos, tanto con el libro como con la carta, ocurrió un gran milagro parecido al de los apóstoles: el del primitivo don de lenguas._x000D_
-Viviendo ei aquel tiempo, en esta tierra, hebreos, persas e indios, además de los nativos del país, todos ellos pudieron leer el libro y la carta como si estuvieran escritos en su propia lengua._x000D_
-De este modo, y por el arca o cofre, se salvó esta tierra de la infidelidad (como parte del mundo antiguo se salvó del diluvio) mediante la milagrosa y apostólica evangelización de San Bartolomé.</t>
-  </si>
-  <si>
     <t>Hizo una pausa, llegó en este instante un mensajero y se marchó.</t>
   </si>
   <si>
@@ -435,10 +411,6 @@
     <t>A esto respondió:</t>
   </si>
   <si>
-    <t>Su recuerdo es acertado, por esto en lo que voy a decirles, he de reservarme algunos detalles, que no es legal que revele, pero con lo que les diga tendrán ustedes bastante para su satisfacción._x000D_
-Sabrán ustedes (y quizá les parecerá increíble) que hace unos tres mil años, o algo más, la navegación mundial (especialmente respecto a los viajes laigos) era mucho mayor que en la actualidad.</t>
-  </si>
-  <si>
     <t>No piensen ustedes que yo ignoro el aumento que ha experimentado dentro de los últimos ciento veinte años; lo sé bien, y sin embargo afirmo que era mayor entonces que ahora; puede ser que el ejemplo del arca, que salvó a los pocos hombres que quedaban del Diluvio Universal, diera confianza a los hombres para aventurarse sobre las aguas; el caso es que ésta es la verdad.</t>
   </si>
   <si>
@@ -457,12 +429,6 @@
     <t>Ustedes apenas si conservan recuerdo de esto, pero nosotros sabemos bastante.</t>
   </si>
   <si>
-    <t>En aquel tiempo esta tierra era conocida y frecuentada por los barcos y navíos de todas las naciones que he citado anteriormente._x000D_
-Y, como suele ocurrir, venían a veces con ellos hombres de otros países que no eran marinos; persas, caldeos, árabes, hombres de casi todas las naciones potentes y famosas se reunían aquí; actualmente existen entre nosotros pequeños grupos y familias que descienden de ellos._x000D_
-Y respecto a nuestros barcos, hicieron varios viajes tanto al estrecho que ustedes llaman las Columnas de Hércules, como a otras partes del Océano Atlántico y del mar Mediterráneo; fueron a Pekín (ciudad a la que nosotros llamamos Cambaline) y a Quinzy, en los mares de Oriente, y llegaron hasta los confines de la Tartaria oriental._x000D_
-Al mismo tiempo, y después de algo más de una generación, prosperaron los habitantes de la Gran Atlántida.</t>
-  </si>
-  <si>
     <t>Pues aunque la narración y descripción que hizo uno de vuestros grandes hombres (Platon en el Critias) acerca de que en ella se establecieron los descendientes de Neptuno, de la magnificencia del templo, del palacio, la ciudad y la colina; de los múltiples y grandes ríos navegables (que como cadenas rodeaban al lugar y al templo); las diversas escalinatas por las que los hombres ascendían a él, como si fuera una Scala coeli; aunque todo esto sea poético y fabuloso, sin embargo, gran parte es cierto ya que el susodicho país, la Atlántida, así como el Perú, que entonces se llamaba Coya, y Méjico, llamado entonces Tyrambel, fueron poderosos y soberbios reinos por sus armas, barcos y riquezas: tan poderosos que una vez (o por lo menos en el espacio de diez años) realizaron dos grandes expediciones los hombres de Tyrambel al mar Mediterráneo a través del Atlántico; y los de Coya a nuestra isla por el Mar del Sur; de la expedición que fue a Europa, según parece, ese mismo autor tuvo alguna noticia por un sacerdote egipcio, a quien cita.</t>
   </si>
   <si>
@@ -478,14 +444,6 @@
     <t>El rey de esta isla, llamado Altabin, hombre sabio y gran guerrero, conociendo bien su propia fuerza y la de sus enemigos maniobró de forma que, con fuerzas inferiores, separó a las tropas de desembarco de sus navíos, apoderándose de éstos y del campamento y obligándoles a rendirse sin necesidad de combatir; cuando estuvieron a su merced se contentó con su juramento de que no volverían a empuñar las armas contra él y los puso en libertad.</t>
   </si>
   <si>
-    <t>Poco después de estas arrogantes expediciones cayó sobre ellos la venganza divina._x000D_
-En menos de un siglo la Gran Atlántida quedó destruida; no por un gran terremoto, como dice vuestro escritor (puesto que la región era poco propensa a terremotos), sino por un diluvio extraordinario con inundación, ya que en aquellos tiempos esos países tenían las aguas procedentes de ríos mucho más grandes y montañas mucho más elevadas, que cualquier parte del Viejo Mundo._x000D_
-Lo cierto es que la inundación no fué profunda, pues no llegó a más de cuarenta pies de altura sobre la tierra, de forma que aunque destruyó en general a los hombres y a los animales, sin embargo algunos hombres salvajes de los bosques consiguieron escapar._x000D_
-También se salvaron los pájaros volando a las ramas altas de los árboles._x000D_
-Respecto a los hombres, aunque en muchos sitios tenían viviendas más elevadas que la altura del agua, sin embargo, la inundación, aunque superficial, se prolongó mucho tiempo por cuyo motivo los habitantes de los valles que no habían muerto ahogados perecieron por falta de alimentos y de otras cosas necesarias._x000D_
-Así pues, no se maravillen de la escasa población de América, ni de la rudeza e ignorancia de sus habitantes, pues hay que considerarlos como a un pueblo joven, mil años menor que el resto del mundo, pues tanto tiempo transcurrió entre el Diluvio Universal y esta extraordinaria inundación.</t>
-  </si>
-  <si>
     <t>Los pobres supervivientes del género humano que quedaron en las montañas repoblaron de nuevo el país lentamente, poco a poco, y como eran personas sencillas y salvajes (distintas a Noé y sus hijos, que constituían la familia principal de la Tierra) fueron incapaces de dejar a su posteridad alfabeto, arte o civilización; y estando habituados, igualmente, a vestirse en sus montañas ( a causa del riguroso frío de aquellas regiones) con pieles de tigres, osos y cabras de largo pelo que tenían en aquellas tierras, cuando descendieron a los valles y se encontraron con el intolerable calor que allí reinaba, y no sabiendo cómo hacerse vestidos más ligeros, forzosamente se acostumbraron a ir desnudos, y así continúan hoy.</t>
   </si>
   <si>
@@ -495,13 +453,6 @@
     <t>Como ven, a, causa de este gran accidente, perdimos nuestra relación con los americanos, con quienes teníamos más que con otros, un comercio más intenso debido a nuestra mayor proximidad.</t>
   </si>
   <si>
-    <t>En las demás partes del mundo es evidente que en los tiempos que siguieron (bien fuera debido a las guerras, o por la evolución natural del tiempo) la navegación decayó grandemente en todos los sitios: especialmente los viajes largos (en parte, a causa del empleo de galeras y barcos que apenas podían resistir la furia del mar) dejaron de realizarse._x000D_
-De este modo, la comunicación que podían tener con nosotros otras naciones cesó desde hace largo tiempo, a no ser que ocurriera algún accidente extraño como el de ustedes._x000D_
-Respecto a la comunicación que podíamos nosotros tener con los otros países, debo decirles la causa de que no haya ocurrido así._x000D_
-Puedo confesar, hablando con franqueza, que nuestras embarcaciones, potencia, marinería y pilotos, así como todo cuanto pertenece al arte de navegar, son tan grandes como lo fueron siempre; por lo tanto, voy a contarles por qué hemos permanecido en nuestro país, con lo que, para su satisfacción personal, se hallarán más cerca de su pregunta principal._x000D_
-Hace aproximadamente mil novecientos años reinaba en esta isla un soberano cuya memoria, entre todos los reyes, adoramos en mayor grado; no lo hacemos de un modo supersticioso sino considerándolo como un instrumento divino, aunque era un hombre mortal; se llamaba Salomona, y lo reputábamos como el legislador de nuestra nación.</t>
-  </si>
-  <si>
     <t>Este rey tenía un gran corazón, un inextinguible amor al bien y una inclinación fervorosa por hacer felices a su reino y a su pueblo.</t>
   </si>
   <si>
@@ -529,17 +480,6 @@
     <t>Continuó él:</t>
   </si>
   <si>
-    <t>Queriendo también aquel rey unir la humanidad y la prudencia, y pensando que era una falta de lesa humanidad detener aquí contra su propia voluntad a los extranjeros, y de prudencia el que volvieran y revelaran su descubrimiento de este Estado, adoptó las medidas siguientes: ordenó que todos aquellos extranjeros a los que se les hubiera permitido desembarcar podían partir cuando quisieran; y que los que desearan permanecer tuvieran buenas condiciones de vida y se les dotara de medios para vivir a costa del Estado._x000D_
-Previó en tan gran medida el futuro, que en tantos años como han transcurrido desde la prohibición no recordamos que retornara ningún barco, excepto trece personas, en épocas diferentes, que prefirieron volver._x000D_
-Ignoro qué es lo que contarían los que volvieron._x000D_
-Hay que creer que lo que relataran en cualquier parte que llegaran fuera considerado un mero sueño._x000D_
-Respecto a los viajes que nosotros pudiéramos realizar desde aquí al extranjero, nuestro legislador creyó conveniente limitarlos._x000D_
-No ocurre así en China, ya que los chinos navegan adonde quieren o adonde pueden; esto demuestra que su ley prohibiendo entrar a los extranjeros es producto de la pusilanimidad y del miedo._x000D_
-Esta restricción nuestra tiene sólo una excepción, la cual es admirable: aprovechar el bien que resulta de la comunicación con los extranjeros y evitar el daño._x000D_
-Y ahora se lo mostraré a ustedes; pero aquí voy a hacer una pequeña digresión que pronto encontrarán pertinente._x000D_
-Sabrán, queridos amigos, que entre todos los excelentes actos de aquel rey uno de ellos tuvo la preeminencia.</t>
-  </si>
-  <si>
     <t>Fué la fundación e institución de una orden o sociedad, a la que llamamos Casa de Salomón; fué la fundación más noble que jamás se hizo sobre la Tierra, y el faro de este reino.</t>
   </si>
   <si>
@@ -561,13 +501,6 @@
     <t>Y me induce bastante a ser de esta opinión el hecho de que en los documentos antiguos esta orden o sociedad es llamada unas veces Casa de Salomón, y otras Colegio de la Obra de los Seis Días; por lo que deduzco que nuestro excelente rey aprendió de los hebreos que Dios creó el mundo y todo cuanto encierra en seis días, y que, por lo tanto, al fundar esta casa para la investigación de la verdadera naturaleza de todas las cosas (por lo cual Dios tendría la mayor gloria, como hacedor de ellas, y los hombres mayor fruto en su uso) le dió también este segundo nombre.</t>
   </si>
   <si>
-    <t>Pero volvamos a nuestro asunto._x000D_
-Cuando el rey prohibió a su pueblo que navegara fuera de sus aguas jurisdiccíonales, hizo, no obstante, esta salvedad: que cada doce años salieran del reino dos barcos con objeto de realizar varios viajes, y que en ellos fuera una comisión compuesta de tres miembros o hermanos de la Casa de Salomón para que pudieran dar a conocer el estado de los asuntos de los países que visitaban; especialmente las ciencias, artes, manufacturas e invenciones de todo el mundo; además, traernos libros, instrumentos y modelos de toda clase de cosas; dispuso que los barcos volvieran después de haber desembarcado a los hermanos, y que éstos permanecieran en el extranjero hasta la llegada de la nueva misión._x000D_
-Estos barcos se hallaban cargados de avituallamientos y llevaban también bastante oro para que la comisión pudiera comprar cosas necesarias y recompensar a las personas que, a su juicio, lo merecieran._x000D_
-Ahora bien, no puedo decirles a ustedes cómo evitamos que se descubra el desembarco de los marineros, de qué modo residen en tierra durante cierto tiempo bajo el disfraz de otra nacionalidad, qué lugares fueron los elegidos para realizar estos viajes, y en qué países se proyectan las citas de las nuevas misiones, y las circunstancias que rodean a todo esto; no puedo decirlo, por mucho que lo deseen._x000D_
-Como ustedes pueden observar mantenemos comercio, no de oro, plata o joyas, ni tampoco de sedas, especias o mercancías parecidas, sino de la primera creación de Dios, que fué la luz: deseamos tener luz, por así decirlo, de los descubrimientos realizados en todos los lugares del mundo.</t>
-  </si>
-  <si>
     <t>Cuando acabó permaneció silencioso, y así estuvimos todos; nos hallábamos asombrados de haber escuchado tan sorprendentes nuevas.</t>
   </si>
   <si>
@@ -815,12 +748,6 @@
   </si>
   <si>
     <t>Al escuchar mis palabras inclinó la cabeza y continuó del modo siguiente:</t>
-  </si>
-  <si>
-    <t>Poseen también muchas y excelentes leyes respecto al matrimonio._x000D_
-No permiten la poligamia._x000D_
-No pueden casarse o celebrar el contrato matrimonial previo hasta que ha transcurrido un mes después de su primera entrevista._x000D_
-No invalidan el matrimonio celebrado sin consentimiento paterno, pero lo castigan con una multa a los herederos; los hijos de estos matrimonios no pueden heredar más de una tercera parte de los bienes de sus padres.</t>
   </si>
   <si>
     <t>Continuábamos nuestra charla cuando entró una especie de mensajero, vestido con una rica capa y habló con el judío; entonces, éste se volvió a mí exclamando: "Perdóneme, pero tengo orden de salir con urgencia."</t>
@@ -974,39 +901,6 @@
     <t>Poseemos, igualmente, violentas corrientes y cataratas, que nos sirven para producir muchos movimientos; también máquinas que aprovechando la fuerza del viento producen movimientos diversos.</t>
   </si>
   <si>
-    <t>Tenemos también cierto número de pozos y fuentes artificiales, a imitación de manantiales y baños naturales, y que contienen en disolución vitriolo, sulfuro, acero, plomo, salitre y otros minerales; y además, poseemos pequeños pozos donde mezclamos muchas cosas, con lo que las aguas adquieren la virtud más de prisa y mejor que en vasijas o en estanques._x000D_
-Entre éstas tenemos un agua que llamamos Agua del Paraíso, remedio soberano._x000D_
-para conservar la salud y prolongar la vida._x000D_
-Tenemos también grandes y espaciosas casas, donde imitamos y hacemos demostraciones de fenómenos atmosféricos,.como nieve, granizo, lluvia, caídas artificiales de cuerpos que no son agua, truenos, y relámpagos; igualmente, engendramos cuerpos en el aire, como ranas, moscas y otros diversos.</t>
-  </si>
-  <si>
-    <t>Tenemos también ciertas cámaras, a las que denomitiamos cámaras de salud, donde preparamos el aire para que sea adecuado y bueno para la curación de diversas enfermedades, y para la conservación de la salud._x000D_
-Tenemos también grandes y magníficos baños, con mezclas diversas, para curar enfermedades y restablecer al cuerpo humano del exceso de sequedad; y otros para aumentar la fuerza de los nervios, de las partes vitales, y de la substancia y jugo corporales.</t>
-  </si>
-  <si>
-    <t>Contamos igualmente con varios huertos y jardines, en los cuales más que a su belleza atendemos a la variedad del terreno y del suelo, adecuados para distintas clases de árboles y hierbas; algunos de ellos son muy espaciosos, plantándose árboles, fresas, moras etc., con las que hacemos diferentes clases de bebidas, además del vino._x000D_
-Realizamos toda clase de injertos, así como hacemos experimentos para convertir los árboles silvestres en frutales; todo esto da lugar a la producción de muchos efectos._x000D_
-En los mismos huertos y jardines conseguimos por medios artificiales que los árboles y las flores florezcan antes o después de su estación correspondiente, y que den fruto con más rapidez que lo harían siguiendo su evolución normal._x000D_
-Logramos también que adquieran un tamaño mayor que el natural, y que su fruto sea mayor y más dulce, y de un gusto, olor, color y forma distintos a los que poseen por naturaleza._x000D_
-Muchos de ellos pueden emplearse corno medicinales._x000D_
-Conocemos medios Para obtener diversas plantas y desarrollar su crecimiento mediante mezclas de tierras, sin semillas, e igualmente para producir plantas nuevas distintas a las corrientes, y para lograr que un árbol o planta se convierta en otro.</t>
-  </si>
-  <si>
-    <t>Tenemos también parques y recintos con toda clase de animales, a los cuales empleamos no sólo como espectáculo por su rareza sino para disecciones y experimentos; de este modo podemos averiguar por analogía muchos males del cuerpo humano._x000D_
-Hemos hallado muchos efectos extraños, como por ejemplo que la vida continúa en ellos aunque partes que se consideran vitales perezcan o se amputen; resucitar a algunos que en apariencia estaban muertos, y casos parecidos._x000D_
-Probamos también en ellos toda clase de venenos y medicamentos, para bien de la medicina y de la cirugía._x000D_
-Los hacemos artificialmente más grandes o más altos de lo que es su especie, y al contrario, los empequeñecemos y detenemos su crecimiento; los hacemos más fecundos y fructíferos de lo que es su especie y, al contrario, estériles e incapaces de fecundar._x000D_
-De muchas formas, cambiamos su color, tamaño y actividad._x000D_
-Hemos encontrado medios para realizar cruces de diversos géneros, que han dado como resultando muchas especies nuevas, que no son estériles como supone la opinión general._x000D_
-Hacemos cierto número de especies de serpientes, gusanos, moscas, peces, de materia en putrefacción, y a partir de su especie algunas se convierten, en efecto, en seres más perfectos, como bestias o pájaros, que poseen su propio sexo y se multiplican._x000D_
-Todo esto no lo realizamos al azar, ya que sabemos de antemano qué seres surgirán a partir de un cruce y materia determinados._x000D_
-Tenemos también estanques para hacer experimentos con peces, como dijimos antes respecto a los pájaros y demás animales.</t>
-  </si>
-  <si>
-    <t>Contamos igualmente con lugares para la alimentación y generación de las especies de gusanos y moscas que tienen una utilidad especial, como los gusanos de seda y las abejas de ustedes._x000D_
-No lo entretendré mucho con la descripción de nuestras cervecerías, panaderías y cocinas, donde se fabrican, diversas bebidas, panes y carnes, raras y de especiales efectos.</t>
-  </si>
-  <si>
     <t>Tenemos vinos de uva y bebidas de otros jugos de frutos, de granos, de raíces, y mezcladas con miel, azúcar, maná, y frutos secos y condensados; igualmente del jugo destilado por las incisiones practicadas en los árboles y de la pulpa de las cañas.</t>
   </si>
   <si>
@@ -1031,24 +925,9 @@
     <t>Tenemos también clases de carne, pan y bebidas que capacitan a los hombres para vivir largo tiempo; otras que logran que el cuerpo del hombre sea sensiblemente más fuerte y resistente, y que su fuerza sea mucho mayor que lo sería de otro modo.</t>
   </si>
   <si>
-    <t>Tenemos dispensarios o tiendas de medicinas, en las que puede verse que contamos con más variedad de plantas y de seres vivos que ustedes tienen en Europa (pues sabemos las que tienen); las hierbas medicinales, drogas e ingredientes para medicinas se encuentran, igualmente, en gran variedad._x000D_
-Las tenemos de diversas épocas y de largas fermentaciones._x000D_
-Respecto a sus preparaciones, no sólo tenemos._x000D_
-aparatos para llevar a cabo toda clase de delicadas destilaciones y separaciones, sino también formas exactas de composición, por las cuales incorporan todos los productos de modo tal que parecen ser elementos naturales._x000D_
-Tenemos también artes mecánicas de las que ustedes carecen; materiales fabricados por ellas, como papel, lino, seda, tisú, delicados trabajos en piel de un brillo maravilloso, excelentes tintes, y otras muchas cosas; hay asi mismo tiendas, tanto corrientes como de lujo.</t>
-  </si>
-  <si>
     <t>Debe usted saber que muchos de los artículos que he enumerado circulan y se usan en todo el país pero, como son producto de nuestra inventiva conservamos ejemplares y modelos de ellos.</t>
   </si>
   <si>
-    <t>Tenemos hornos muy variados y con diversa intensidad de calor: ígneo y vivo; fuerte y constante; templado y suave; mantenido, lento, seco, húmedo, etc._x000D_
-Pero, sobre todo, tenemos clases de calor a imitación del calor del sol y de los cuerpos celestes que pasan por diversos grados de intensidad, y, por decirlo así, sujetos a órbitas, adelantos y atrasos, y que producen admirables efectos._x000D_
-Además, tenemos calores de estiércoles, de entrañas y vísceras de seres vivos y de sus sangres y cuerpos, de heno y hierbas húmedas, de cal viva, etc. Poseemos también instrumentos que generan calor mediante el movimiento y lugares destinados a fuertes insolaciones._x000D_
-Más aún, lugares para aislar por  -  completo a los cuerpos, y sitios subterráneos que de un modo natural o artificial producen calor._x000D_
-Empleamos estos diversos calores para la operación que intentamos realizar._x000D_
-Tenernos laboratorios donde hacemos toda clase de ensayos sobre la luz, las radiaciones y los colores; partiendo de objetos incoloros y transparentes podemos representar todos los diversos colores, no los del espectro (como ocurre en las gemas y en los prismas) sino cada uno en particular.</t>
-  </si>
-  <si>
     <t>Representamos también multiplicidades de luces, que podemos llevar a gran distancia y hacerlas tan potentes como para distinguir pequeños puntos y líneas.</t>
   </si>
   <si>
@@ -1076,12 +955,6 @@
     <t>Representamos toda clase de reflexiones, refracciones, y multiplicamos los rayos visuales de los objetos.</t>
   </si>
   <si>
-    <t>Tenemos también piedras preciosas de todas clases, muchas de ellas de gran belleza, y que ustedes desconocen; del mismo modo, cristales, y lentes de diversos géneros; entre éstos, metales cristalizados, y otros materiales, además  - de aquellos con los que se hace cristal._x000D_
-Igualmente, minerales imperfectos y fósiles que ustedes no tienen._x000D_
-También, imanes de prodigiosa virtud y otras piedras raras, tanto artificiales como naturales._x000D_
-Tenemos también laboratorios de acústica, en los que practicamos y hacemos demostraciones con todos los sonidos y cómo se producen.</t>
-  </si>
-  <si>
     <t>Tenemos armonías que ustedes no tienen, de cuartas e intervalos menores, Diversos instrumentos musicales, que ustedes desconocen, algunos mucho más dulces que los que puedan ustedes poseer, junto con campanas y timbres delicados y armoniosos.</t>
   </si>
   <si>
@@ -1100,13 +973,6 @@
     <t>Contamos también con medios para conducir los sonidos pon tubos y conductos, a través de extrañas líneas, a grandes distancias.</t>
   </si>
   <si>
-    <t>Tenemos también laboratorios de perfumería, donde practicamos diversos ensayos._x000D_
-Multiplicamos los olores, lo cual puede parecer extraño; imitamos olores, haciendo que tengan un perfume diferente del de las substancias que lo forman._x000D_
-Igualmente, realizamos diversas imitaciones del sabor, de tal forma que pueden engañar al paladar de cualquier hombre._x000D_
-En este laboratorio tenemos también un departamento de confitería donde fabricamos toda clase de dulces, sólidos y líquidos, y diversas clases de agradables vinos, leches, caldos y ensaladas en mucha mayor variedad que puedan ustedes tener._x000D_
-Contamos también con salas de máquinas, en las que preparamos máquinas e instrumentos para realizar toda clase de movimientos.</t>
-  </si>
-  <si>
     <t>En ellas practicamos e imitamos movimientos más rápidos que los que ustedes producen, bien con sus mosquetes o con cualquier otro instrumento que posean; y esto con objeto de hacerlos y multiplicarlos con más facilidad y mediante una fuerza menor, por medio de ruedas y de otras formas, y así hacerlos más potentes y más violentos que los de ustedes, para que sobrepasen a vuestros más grandes cañones.</t>
   </si>
   <si>
@@ -1125,63 +991,30 @@
     <t>Imitamos también los movimientos de seres vivos, como hombres, bestias, aves, peces y serpientes; conocemos.también un gran número de otros movimientos, raros por su igualdad, finura y sutileza.</t>
   </si>
   <si>
-    <t>Poseemos también un departamento de matemáticas, donde están representados todos los instrumentos, tanto de geometría como de astronomía, exquisitamente fabricados._x000D_
-Tenemos también casas de ilusiones de los sentidos, donde hacemos juegos de prestidigitación, falsas apariciones, impostoras, ilusiones y falacias.</t>
-  </si>
-  <si>
     <t>Usted creerá fácilmente, con seguridad, que nosotros, que poseemos tantas cosas naturales que inducen a admiración, podríamos engañar a los sentidos si mantuviéramos ocultas estas cosas, y arreglárnoslas para hacerlas aparecer como milagrosas.</t>
   </si>
   <si>
     <t>Pero odiamos tanto las impostoras y mentiras que hemos prohibido severamente a nuestros ciudadanos, bajo pena de ignominia y multa, que muestren cualquier obra natural adornada o exagerada, debiendo mostrarla en su pureza original, desprovista de toda afectación.</t>
   </si>
   <si>
-    <t>Tales son, hijo mío, las riquezas de la Casa de Salomón._x000D_
-Para atender a las necesidades suscitadas por los empleos y oficios de nuestros ciudadanos, doce de ellos navegan hacia países extranjeros bajo la bandera de otras naciones (pues nosotros ocultamos la nuestra), trayéndonos libros, resúmenes y modelos de experimentos realizados en todas partes.</t>
-  </si>
-  <si>
     <t>A estos hombres los llamamos los Mercaderes de la Luz,</t>
   </si>
   <si>
-    <t>Tres de ellos reúnen los experimentos que se encuentran en todos los libros._x000D_
-A éstos los llamamos los Depredadores._x000D_
-Tres reúnen los experimentos llevados a cabo en las artes mecánicas, en las ciencias liberales, y aquellas prácticas que no se incluyen en las artes.</t>
-  </si>
-  <si>
     <t>A éstos los llamamos.</t>
   </si>
   <si>
     <t>los Hombres del Misterio.</t>
   </si>
   <si>
-    <t>Tres ensayan nuevos experimentos, según lo juzgan conveniente._x000D_
-Los llamamos Pioneros o Mineros,_x000D_
-Tres catalogan los experimentos de los cuatro grupos anteriormente enumerados en títulos y tablas, para iluminar mejor la deducción de las observaciones y axiomas extraídos de ellos.</t>
-  </si>
-  <si>
     <t>Los llamamos Compiladores.</t>
   </si>
   <si>
-    <t>Tres examinan los experimentos de sus compañeros, concentrándose en el intento de deducir de ellos cosas útiles y prácticas para la vida y el conocimiento del hombre; e igualmente para sus obras, para la demostración paténte de las causas, medios de adivinación natural, y el rápido y claro descubrimiento de las virtudes y partes de los cuerpos._x000D_
-Los llamamos Donadores o Benefactores._x000D_
-Luego, después de diversas reuniones y consultas de todos los miembros para considerar las investigaciones y síntesis realizadas en primer lugar, contamos con tres de ellos que se preocupan de supervisar y dirigir los nuevos experimentos, desde un punto de vista más elevado, y penetrando más  - en la naturaleza que los anteriores.</t>
-  </si>
-  <si>
     <t>A éstos los, llamamos Lámparas.</t>
   </si>
   <si>
-    <t>Otros tres ejecutan los experimentos así dirigidos, y dan cuenta a aquéllos._x000D_
-Los conocemos con el nombre de Inoculadores._x000D_
-Por último, tenemos tres que sintetizan los descubrimientos logrados mediante los experimentos en observaciones, axiomas y aforismos de más, amplitud.</t>
-  </si>
-  <si>
     <t>Los llamamos Intérpretes de la Naturaleza.</t>
   </si>
   <si>
-    <t>Como puede comprender, contamos también con principiantes y aprendices, para que no se hustre la sucesión de los primeros hombres empleados; tenemos, además, un gran número de criados y sirvientes, hombres y mujeres._x000D_
-Hacemos también lo siguiente: celebramos consultas para acordar cuáles son las invenciones y experiencias descubiertas que se han de dar a conocer, y cuáles no; se toma a todos juramento de guardar secreto respecto a las que consideramos que así conviene que se haga, y a veces unas las revelamos al Estado y otras no._x000D_
-Para nuestras ceremonias y ritos, tenemos dos larguísimas y bellas galerías; en una de ellas colocamos modelos y ejemplares de todas clases de los inventos más raros y mejores; en la otra, las estatuas de los principales inventores.</t>
-  </si>
-  <si>
     <t>Tenemos allí la estatua de vuestro Colón, que descubrió las Indias occidentales; al inventor del barco; al monje vuestro que inventó la artillería y la pólvora: al inventor de la música; al inventor de las cartas; al inventor de la imprenta, al inventor de la astronomía; al inventor de los trabajos en metal; al inventor del cristal; al descubridor de la seda de los gusanos; al inventor del vino; al inventor del pan de maíz y de trigo; al inventor del azúcar, y a todos aquellos que por tradición sabemos que lo fueron.</t>
   </si>
   <si>
@@ -1194,11 +1027,6 @@
     <t>Las estatuas son de bronce, de mármol y jaspe, de cedro y de otras maderas doradas y adornadas; otras son de hierro, de plata o de oro.</t>
   </si>
   <si>
-    <t>Tenemos ciertos himnos y servicios religiosos de alabanza y agradecimiento a Dios por sus maravillosas obras, que los decimos diariamente._x000D_
-También oraciones para implorar su ayuda, y bendición en nuestros trabajos, y para que les dé aplicaciones buenas y santas._x000D_
-Por último, realizamos determinados circuitos o visitas a las principales ciudades del reino, en lasque damos a conocer, según juzgamos conveniente, las más nuevas y provechosas invenciones.</t>
-  </si>
-  <si>
     <t>Anunciamos también las predicciones verosímiles de enfermedades, plagas, invasiones de animales dañinos, años de escasez; tempestades, terremotos, grandes inundaciones, cometas, las temperaturas del año, y otros fenómenos diversos; por consiguiente, les aconsejamos acerca de lo que deben hacer para evitar los males y remediarlos."</t>
   </si>
   <si>
@@ -1218,6 +1046,249 @@
   </si>
   <si>
     <t>BACON</t>
+  </si>
+  <si>
+    <t>Unos veinte años después de la ascensión de nuestro Salvador, los habitantes de Renfusa (ciudad de la costa oriental de nuestra isla) vieron a la distancia de unas millas ( la noche era nubosa y tranquila) un gran pilar de luz en el mar; tenía la forma de una columna o cilindro y ascendía del mar hacia el cielo; en lo alto se veía una gran cruz luminosa, más brillante y resplandeciente que el fuste del pilar.</t>
+  </si>
+  <si>
+    <t>Ante tan extraño espectáculo las gentes de la ciudad se concentraron rápidamente en la playa para admirarlo; luego se embarcaron en cierto número de pequeños botes con objeto de aproximarse más a aquella maravillosa vista.</t>
+  </si>
+  <si>
+    <t>Pero cuando estaban a unas sesenta yardas del pilar se encontraron con que no podían avanzar, aunque podían moverse en otras direcciones; las personas permanecieron en los botes en una actitud contemplativa, corno en un teatro, mirando aquella luz, que era como un signo celestial.</t>
+  </si>
+  <si>
+    <t>Sucedió que en uno de los botes se hallaba uno de nuestros hombres más sabios, de la Sociedad La Casa de Salomón"", casa o colegio, mis queridos hermanos, que constituye el alma de este reino; habiendo mirado y contemplado atenta y devotamente durante un rato el pilar y la cruz, este sabio cayó sobre su rostro, y luego, irguiéndose y elevando sus manos al cielo, oró de esta manera:,"</t>
+  </si>
+  <si>
+    <t>Señor, Dios del cielo y de la tierra, por tu gracia nos has permitido conocer la creación, tu obra, y sus secretos; y discernir (en cuanto le es posible al hombre) entre los milagros divinos, las obras de la naturaleza, las artísticas, y las impostoras e ilusiones de todas clases.</t>
+  </si>
+  <si>
+    <t>Doy fe ante este pueblo que en lo que estamos contemplando en estos momentos se halla tu dedo, y es un verdadero milagro.</t>
+  </si>
+  <si>
+    <t>Y como, según hemos aprendido en nuestros libros, realizas milagros con vistas a un fin excelente y divino (pues las leyes de la naturaleza son tus propias leyes, y tú no las varías a no ser por un gran motivo), te suplicamos humildemente que nos sea posible interpretar este gran signo; lo cual parece que lo prometes, al enviárnoslo."</t>
+  </si>
+  <si>
+    <t>Cuando acabó su oración notó que el bote podía moverse sin impedimento, mientras que los demás permanecían quietos; y considerando que ello significaba permiso para aproximarse, hizo que, remando silenciosamente, el bote se acercara al pilar.</t>
+  </si>
+  <si>
+    <t>Pero cuando llegó cerca de él, el pilar y la cruz luminosa  - se esfumaron, rompiéndose, por así decirlo, en un firmamento de estrellas, que también se desvaneció poco después; y nada más se vio a no ser un pequeño cofre o caja de cedro, seco, y no húmedo aunque flotaba en el agua.</t>
+  </si>
+  <si>
+    <t>En su parte anterior, la que estaba más cerca de él, crecía una pequeña rama verde de palma; cuando el sabio tomó el cofre en sus manos, con toda reverencia lo abrió y se encontraron dentro un libro y una carta, escritos ambos en fino pergamino y enrollados en trozos de tela.</t>
+  </si>
+  <si>
+    <t>El libro contenía todos los libros canónicos del Viejo y del Nuevo Testamento, tal como los tienen ustedes (pues sabemos que su Iglesia los recibió), y el Apocalipsis; también había otros libros del Nuevo Testamento, aunque en aquel tiempo aún no habían sido escritos.</t>
+  </si>
+  <si>
+    <t>La carta contenía estas palabras:</t>
+  </si>
+  <si>
+    <t>Yo, Bartolomé, siervo del Altísimo y apóstol de jesucristo, fui avisado por un ángel que se me apareció en una gloriosa visión para que depositara este cofre sobre las olas del mar."</t>
+  </si>
+  <si>
+    <t>Con estos escritos, tanto con el libro como con la carta, ocurrió un gran milagro parecido al de los apóstoles: el del primitivo don de lenguas.</t>
+  </si>
+  <si>
+    <t>Viviendo ei aquel tiempo, en esta tierra, hebreos, persas e indios, además de los nativos del país, todos ellos pudieron leer el libro y la carta como si estuvieran escritos en su propia lengua.</t>
+  </si>
+  <si>
+    <t>De este modo, y por el arca o cofre, se salvó esta tierra de la infidelidad (como parte del mundo antiguo se salvó del diluvio) mediante la milagrosa y apostólica evangelización de San Bartolomé."</t>
+  </si>
+  <si>
+    <t>Tenemos ciertos himnos y servicios religiosos de alabanza y agradecimiento a Dios por sus maravillosas obras, que los decimos diariamente.</t>
+  </si>
+  <si>
+    <t>También oraciones para implorar su ayuda, y bendición en nuestros trabajos, y para que les dé aplicaciones buenas y santas.</t>
+  </si>
+  <si>
+    <t>Por último, realizamos determinados circuitos o visitas a las principales ciudades del reino, en lasque damos a conocer, según juzgamos conveniente, las más nuevas y provechosas invenciones."</t>
+  </si>
+  <si>
+    <t>Como puede comprender, contamos también con principiantes y aprendices, para que no se hustre la sucesión de los primeros hombres empleados; tenemos, además, un gran número de criados y sirvientes, hombres y mujeres.</t>
+  </si>
+  <si>
+    <t>Hacemos también lo siguiente: celebramos consultas para acordar cuáles son las invenciones y experiencias descubiertas que se han de dar a conocer, y cuáles no; se toma a todos juramento de guardar secreto respecto a las que consideramos que así conviene que se haga, y a veces unas las revelamos al Estado y otras no.</t>
+  </si>
+  <si>
+    <t>Para nuestras ceremonias y ritos, tenemos dos larguísimas y bellas galerías; en una de ellas colocamos modelos y ejemplares de todas clases de los inventos más raros y mejores; en la otra, las estatuas de los principales inventores."</t>
+  </si>
+  <si>
+    <t>Otros tres ejecutan los experimentos así dirigidos, y dan cuenta a aquéllos.</t>
+  </si>
+  <si>
+    <t>Los conocemos con el nombre de Inoculadores.</t>
+  </si>
+  <si>
+    <t>Por último, tenemos tres que sintetizan los descubrimientos logrados mediante los experimentos en observaciones, axiomas y aforismos de más, amplitud."</t>
+  </si>
+  <si>
+    <t>Tres examinan los experimentos de sus compañeros, concentrándose en el intento de deducir de ellos cosas útiles y prácticas para la vida y el conocimiento del hombre; e igualmente para sus obras, para la demostración paténte de las causas, medios de adivinación natural, y el rápido y claro descubrimiento de las virtudes y partes de los cuerpos.</t>
+  </si>
+  <si>
+    <t>Los llamamos Donadores o Benefactores.</t>
+  </si>
+  <si>
+    <t>Luego, después de diversas reuniones y consultas de todos los miembros para considerar las investigaciones y síntesis realizadas en primer lugar, contamos con tres de ellos que se preocupan de supervisar y dirigir los nuevos experimentos, desde un punto de vista más elevado, y penetrando más  - en la naturaleza que los anteriores."</t>
+  </si>
+  <si>
+    <t>Tres ensayan nuevos experimentos, según lo juzgan conveniente.</t>
+  </si>
+  <si>
+    <t>Los llamamos Pioneros o Mineros,</t>
+  </si>
+  <si>
+    <t>Tres catalogan los experimentos de los cuatro grupos anteriormente enumerados en títulos y tablas, para iluminar mejor la deducción de las observaciones y axiomas extraídos de ellos."</t>
+  </si>
+  <si>
+    <t>Tres de ellos reúnen los experimentos que se encuentran en todos los libros.</t>
+  </si>
+  <si>
+    <t>A éstos los llamamos los Depredadores.</t>
+  </si>
+  <si>
+    <t>Tres reúnen los experimentos llevados a cabo en las artes mecánicas, en las ciencias liberales, y aquellas prácticas que no se incluyen en las artes."</t>
+  </si>
+  <si>
+    <t>Tales son, hijo mío, las riquezas de la Casa de Salomón.</t>
+  </si>
+  <si>
+    <t>Para atender a las necesidades suscitadas por los empleos y oficios de nuestros ciudadanos, doce de ellos navegan hacia países extranjeros bajo la bandera de otras naciones (pues nosotros ocultamos la nuestra), trayéndonos libros, resúmenes y modelos de experimentos realizados en todas partes."</t>
+  </si>
+  <si>
+    <t>Poseemos también un departamento de matemáticas, donde están representados todos los instrumentos, tanto de geometría como de astronomía, exquisitamente fabricados.</t>
+  </si>
+  <si>
+    <t>Tenemos también casas de ilusiones de los sentidos, donde hacemos juegos de prestidigitación, falsas apariciones, impostoras, ilusiones y falacias."</t>
+  </si>
+  <si>
+    <t>Tenemos también laboratorios de perfumería, donde practicamos diversos ensayos.</t>
+  </si>
+  <si>
+    <t>Multiplicamos los olores, lo cual puede parecer extraño; imitamos olores, haciendo que tengan un perfume diferente del de las substancias que lo forman.</t>
+  </si>
+  <si>
+    <t>Igualmente, realizamos diversas imitaciones del sabor, de tal forma que pueden engañar al paladar de cualquier hombre.</t>
+  </si>
+  <si>
+    <t>En este laboratorio tenemos también un departamento de confitería donde fabricamos toda clase de dulces, sólidos y líquidos, y diversas clases de agradables vinos, leches, caldos y ensaladas en mucha mayor variedad que puedan ustedes tener.</t>
+  </si>
+  <si>
+    <t>Contamos también con salas de máquinas, en las que preparamos máquinas e instrumentos para realizar toda clase de movimientos."</t>
+  </si>
+  <si>
+    <t>Tenemos también piedras preciosas de todas clases, muchas de ellas de gran belleza, y que ustedes desconocen; del mismo modo, cristales, y lentes de diversos géneros; entre éstos, metales cristalizados, y otros materiales, además  - de aquellos con los que se hace cristal.</t>
+  </si>
+  <si>
+    <t>Igualmente, minerales imperfectos y fósiles que ustedes no tienen.</t>
+  </si>
+  <si>
+    <t>También, imanes de prodigiosa virtud y otras piedras raras, tanto artificiales como naturales.</t>
+  </si>
+  <si>
+    <t>Tenemos también laboratorios de acústica, en los que practicamos y hacemos demostraciones con todos los sonidos y cómo se producen."</t>
+  </si>
+  <si>
+    <t>Tenemos hornos muy variados y con diversa intensidad de calor: ígneo y vivo; fuerte y constante; templado y suave; mantenido, lento, seco, húmedo, etc.</t>
+  </si>
+  <si>
+    <t>Pero, sobre todo, tenemos clases de calor a imitación del calor del sol y de los cuerpos celestes que pasan por diversos grados de intensidad, y, por decirlo así, sujetos a órbitas, adelantos y atrasos, y que producen admirables efectos.</t>
+  </si>
+  <si>
+    <t>Además, tenemos calores de estiércoles, de entrañas y vísceras de seres vivos y de sus sangres y cuerpos, de heno y hierbas húmedas, de cal viva, etc. Poseemos también instrumentos que generan calor mediante el movimiento y lugares destinados a fuertes insolaciones.</t>
+  </si>
+  <si>
+    <t>Más aún, lugares para aislar por  -  completo a los cuerpos, y sitios subterráneos que de un modo natural o artificial producen calor.</t>
+  </si>
+  <si>
+    <t>Empleamos estos diversos calores para la operación que intentamos realizar.</t>
+  </si>
+  <si>
+    <t>Tenernos laboratorios donde hacemos toda clase de ensayos sobre la luz, las radiaciones y los colores; partiendo de objetos incoloros y transparentes podemos representar todos los diversos colores, no los del espectro (como ocurre en las gemas y en los prismas) sino cada uno en particular."</t>
+  </si>
+  <si>
+    <t>Tenemos dispensarios o tiendas de medicinas, en las que puede verse que contamos con más variedad de plantas y de seres vivos que ustedes tienen en Europa (pues sabemos las que tienen); las hierbas medicinales, drogas e ingredientes para medicinas se encuentran, igualmente, en gran variedad.</t>
+  </si>
+  <si>
+    <t>Las tenemos de diversas épocas y de largas fermentaciones.</t>
+  </si>
+  <si>
+    <t>Respecto a sus preparaciones, no sólo tenemos.</t>
+  </si>
+  <si>
+    <t>aparatos para llevar a cabo toda clase de delicadas destilaciones y separaciones, sino también formas exactas de composición, por las cuales incorporan todos los productos de modo tal que parecen ser elementos naturales.</t>
+  </si>
+  <si>
+    <t>Tenemos también artes mecánicas de las que ustedes carecen; materiales fabricados por ellas, como papel, lino, seda, tisú, delicados trabajos en piel de un brillo maravilloso, excelentes tintes, y otras muchas cosas; hay asi mismo tiendas, tanto corrientes como de lujo."</t>
+  </si>
+  <si>
+    <t>Contamos igualmente con lugares para la alimentación y generación de las especies de gusanos y moscas que tienen una utilidad especial, como los gusanos de seda y las abejas de ustedes.</t>
+  </si>
+  <si>
+    <t>No lo entretendré mucho con la descripción de nuestras cervecerías, panaderías y cocinas, donde se fabrican, diversas bebidas, panes y carnes, raras y de especiales efectos."</t>
+  </si>
+  <si>
+    <t>Tenemos también parques y recintos con toda clase de animales, a los cuales empleamos no sólo como espectáculo por su rareza sino para disecciones y experimentos; de este modo podemos averiguar por analogía muchos males del cuerpo humano.</t>
+  </si>
+  <si>
+    <t>Hemos hallado muchos efectos extraños, como por ejemplo que la vida continúa en ellos aunque partes que se consideran vitales perezcan o se amputen; resucitar a algunos que en apariencia estaban muertos, y casos parecidos.</t>
+  </si>
+  <si>
+    <t>Probamos también en ellos toda clase de venenos y medicamentos, para bien de la medicina y de la cirugía.</t>
+  </si>
+  <si>
+    <t>Los hacemos artificialmente más grandes o más altos de lo que es su especie, y al contrario, los empequeñecemos y detenemos su crecimiento; los hacemos más fecundos y fructíferos de lo que es su especie y, al contrario, estériles e incapaces de fecundar.</t>
+  </si>
+  <si>
+    <t>De muchas formas, cambiamos su color, tamaño y actividad.</t>
+  </si>
+  <si>
+    <t>Hemos encontrado medios para realizar cruces de diversos géneros, que han dado como resultando muchas especies nuevas, que no son estériles como supone la opinión general.</t>
+  </si>
+  <si>
+    <t>Hacemos cierto número de especies de serpientes, gusanos, moscas, peces, de materia en putrefacción, y a partir de su especie algunas se convierten, en efecto, en seres más perfectos, como bestias o pájaros, que poseen su propio sexo y se multiplican.</t>
+  </si>
+  <si>
+    <t>Todo esto no lo realizamos al azar, ya que sabemos de antemano qué seres surgirán a partir de un cruce y materia determinados.</t>
+  </si>
+  <si>
+    <t>Tenemos también estanques para hacer experimentos con peces, como dijimos antes respecto a los pájaros y demás animales."</t>
+  </si>
+  <si>
+    <t>Contamos igualmente con varios huertos y jardines, en los cuales más que a su belleza atendemos a la variedad del terreno y del suelo, adecuados para distintas clases de árboles y hierbas; algunos de ellos son muy espaciosos, plantándose árboles, fresas, moras etc., con las que hacemos diferentes clases de bebidas, además del vino.</t>
+  </si>
+  <si>
+    <t>Realizamos toda clase de injertos, así como hacemos experimentos para convertir los árboles silvestres en frutales; todo esto da lugar a la producción de muchos efectos.</t>
+  </si>
+  <si>
+    <t>En los mismos huertos y jardines conseguimos por medios artificiales que los árboles y las flores florezcan antes o después de su estación correspondiente, y que den fruto con más rapidez que lo harían siguiendo su evolución normal.</t>
+  </si>
+  <si>
+    <t>Logramos también que adquieran un tamaño mayor que el natural, y que su fruto sea mayor y más dulce, y de un gusto, olor, color y forma distintos a los que poseen por naturaleza.</t>
+  </si>
+  <si>
+    <t>Muchos de ellos pueden emplearse corno medicinales.</t>
+  </si>
+  <si>
+    <t>Conocemos medios Para obtener diversas plantas y desarrollar su crecimiento mediante mezclas de tierras, sin semillas, e igualmente para producir plantas nuevas distintas a las corrientes, y para lograr que un árbol o planta se convierta en otro."</t>
+  </si>
+  <si>
+    <t>Tenemos también ciertas cámaras, a las que denomitiamos cámaras de salud, donde preparamos el aire para que sea adecuado y bueno para la curación de diversas enfermedades, y para la conservación de la salud.</t>
+  </si>
+  <si>
+    <t>Tenemos también grandes y magníficos baños, con mezclas diversas, para curar enfermedades y restablecer al cuerpo humano del exceso de sequedad; y otros para aumentar la fuerza de los nervios, de las partes vitales, y de la substancia y jugo corporales."</t>
+  </si>
+  <si>
+    <t>Tenemos también cierto número de pozos y fuentes artificiales, a imitación de manantiales y baños naturales, y que contienen en disolución vitriolo, sulfuro, acero, plomo, salitre y otros minerales; y además, poseemos pequeños pozos donde mezclamos muchas cosas, con lo que las aguas adquieren la virtud más de prisa y mejor que en vasijas o en estanques.</t>
+  </si>
+  <si>
+    <t>Entre éstas tenemos un agua que llamamos Agua del Paraíso, remedio soberano.</t>
+  </si>
+  <si>
+    <t>para conservar la salud y prolongar la vida.</t>
+  </si>
+  <si>
+    <t>Tenemos también grandes y espaciosas casas, donde imitamos y hacemos demostraciones de fenómenos atmosféricos,.como nieve, granizo, lluvia, caídas artificiales de cuerpos que no son agua, truenos, y relámpagos; igualmente, engendramos cuerpos en el aire, como ranas, moscas y otros diversos."</t>
   </si>
 </sst>
 </file>
@@ -1233,12 +1304,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1253,11 +1384,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD38B72-BDAE-4C57-A5B2-FA317C550A33}">
-  <dimension ref="A1:A359"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,7 +2035,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2115,1264 +2259,1548 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>126</v>
+    <row r="122" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
+      <c r="A129" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>135</v>
+      <c r="A136" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>141</v>
+      <c r="A142" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>145</v>
+      <c r="A146" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
+      <c r="A156" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>163</v>
+      <c r="A164" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>247</v>
+      <c r="A248" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>284</v>
+      <c r="A285" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>285</v>
+      <c r="A286" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D297" t="b">
+        <f>A297=A294</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>303</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>304</v>
+      <c r="A305" s="10" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>305</v>
+      <c r="A306" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
-        <v>306</v>
+      <c r="A307" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>307</v>
+      <c r="A308" s="14" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>308</v>
+      <c r="A309" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>309</v>
+      <c r="A310" s="14" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>310</v>
+      <c r="A311" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>311</v>
+      <c r="A312" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>312</v>
+      <c r="A313" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>313</v>
+      <c r="A314" s="13" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>314</v>
+      <c r="A315" s="13" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>315</v>
+      <c r="A316" s="13" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>316</v>
+      <c r="A317" s="13" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>317</v>
+      <c r="A318" s="13" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
-        <v>318</v>
+      <c r="A319" s="13" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>319</v>
+      <c r="A320" s="13" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>320</v>
+      <c r="A321" s="13" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>321</v>
+      <c r="A322" s="13" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>322</v>
+      <c r="A323" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>323</v>
+      <c r="A324" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>325</v>
+      <c r="A326" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>332</v>
+      <c r="A333" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>333</v>
+      <c r="A334" s="11" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>334</v>
+      <c r="A335" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>335</v>
+      <c r="A336" s="11" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>336</v>
+      <c r="A337" s="11" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
+      <c r="A338" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>338</v>
+      <c r="A339" s="8" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>339</v>
+      <c r="A340" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>340</v>
+      <c r="A341" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>341</v>
+      <c r="A342" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
-        <v>342</v>
+      <c r="A343" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>343</v>
+      <c r="A344" s="8" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
-        <v>344</v>
+      <c r="A345" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>346</v>
+      <c r="A347" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>351</v>
+      <c r="A352" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>353</v>
+      <c r="A354" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>354</v>
+      <c r="A355" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>355</v>
+      <c r="A356" s="10" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>356</v>
+      <c r="A357" s="10" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
